--- a/General things/DionoFeatureChecklist.xlsx
+++ b/General things/DionoFeatureChecklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
   <si>
     <t>Brachiosaurus</t>
   </si>
@@ -142,6 +142,87 @@
   </si>
   <si>
     <t>Food</t>
+  </si>
+  <si>
+    <t>Item.bone</t>
+  </si>
+  <si>
+    <t>Can Fly</t>
+  </si>
+  <si>
+    <t>SJL</t>
+  </si>
+  <si>
+    <t>pork raw</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>melon</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>fishx2</t>
+  </si>
+  <si>
+    <t>porkx2</t>
+  </si>
+  <si>
+    <t>beefx2</t>
+  </si>
+  <si>
+    <t>beef raw</t>
+  </si>
+  <si>
+    <t>chick raw</t>
+  </si>
+  <si>
+    <t>chickx2</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>cookie</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>dino cook</t>
+  </si>
+  <si>
+    <t>stego</t>
+  </si>
+  <si>
+    <t>plesio</t>
+  </si>
+  <si>
+    <t>ptero</t>
+  </si>
+  <si>
+    <t>brachio</t>
+  </si>
+  <si>
+    <t>dilopho</t>
+  </si>
+  <si>
+    <t>utah</t>
+  </si>
+  <si>
+    <t>tricera</t>
   </si>
 </sst>
 </file>
@@ -165,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF6D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -300,6 +387,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +697,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,7 +711,7 @@
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1051,7 +1146,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>29</v>
@@ -1063,7 +1158,7 @@
         <v>29</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1110,7 +1205,21 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="22"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="22"/>
@@ -1120,41 +1229,91 @@
         <v>41</v>
       </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="C26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="C27" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="E27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
+      <c r="E28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="20"/>
@@ -1163,11 +1322,21 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
+      <c r="G29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="20"/>
@@ -1176,11 +1345,21 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
+      <c r="G30" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="20"/>
@@ -1189,11 +1368,17 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="G31" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="28"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="20"/>
@@ -1202,9 +1387,13 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="I32" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
     </row>
@@ -1215,9 +1404,13 @@
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="G33" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="I33" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
     </row>
@@ -1230,7 +1423,9 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="I34" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
     </row>
@@ -1243,7 +1438,9 @@
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="I35" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
     </row>
